--- a/src/main/resources/files/edges.xlsx
+++ b/src/main/resources/files/edges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\ai_introduction\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1968A1-F9D0-464C-85DD-9C019EE2A07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2C80B4-F2C3-45DE-9379-BF8B6B92F14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,10 @@
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="A306" sqref="A306:XFD306"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3026,7 +3030,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B84 A153:B155 A156:B305 A86:B152 B85 A306:B328" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B152 A153:B155 A156:B305 A306:B328" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>